--- a/Thresholding/Results/results_table_NHKG.xlsx
+++ b/Thresholding/Results/results_table_NHKG.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Row</t>
   </si>
@@ -171,7 +171,7 @@
     <t>HK_G_acc_LG</t>
   </si>
   <si>
-    <t>Var4</t>
+    <t>HK_G_acc_SD</t>
   </si>
   <si>
     <t>HK_R_acc_G</t>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>Var8</t>
   </si>
 </sst>
 </file>
@@ -232,19 +229,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:I49"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.34765625" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="12.16796875" customWidth="true"/>
     <col min="4" max="4" width="12.44140625" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.53125" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.984375" customWidth="true"/>
     <col min="8" max="8" width="12.2578125" customWidth="true"/>
     <col min="9" max="9" width="12.34765625" customWidth="true"/>
-    <col min="10" max="10" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -275,9 +271,6 @@
       <c r="I1" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="0" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
@@ -290,7 +283,7 @@
         <v>84.81481481481481</v>
       </c>
       <c r="D2" s="0">
-        <v>97.777777777777771</v>
+        <v>98.945518453427056</v>
       </c>
       <c r="E2" s="0">
         <v>50.135501355013545</v>
@@ -302,12 +295,9 @@
         <v>87.39746457867264</v>
       </c>
       <c r="H2" s="0">
-        <v>97.16629381058911</v>
+        <v>97.474523704031895</v>
       </c>
       <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
         <v>93.139448173005221</v>
       </c>
     </row>
@@ -322,7 +312,7 @@
         <v>83.703703703703695</v>
       </c>
       <c r="D3" s="0">
-        <v>97.777777777777771</v>
+        <v>98.945518453427056</v>
       </c>
       <c r="E3" s="0">
         <v>50.135501355013545</v>
@@ -334,12 +324,9 @@
         <v>87.695749440715886</v>
       </c>
       <c r="H3" s="0">
-        <v>99.030574198359432</v>
+        <v>99.025254762959676</v>
       </c>
       <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
         <v>92.244593586875467</v>
       </c>
     </row>
@@ -354,7 +341,7 @@
         <v>85.18518518518519</v>
       </c>
       <c r="D4" s="0">
-        <v>97.777777777777771</v>
+        <v>98.594024604569412</v>
       </c>
       <c r="E4" s="0">
         <v>49.59349593495935</v>
@@ -366,12 +353,9 @@
         <v>88.441461595824009</v>
       </c>
       <c r="H4" s="0">
-        <v>96.942580164056665</v>
+        <v>97.563136907399212</v>
       </c>
       <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
         <v>93.437733035048481</v>
       </c>
     </row>
@@ -386,7 +370,7 @@
         <v>79.629629629629633</v>
       </c>
       <c r="D5" s="0">
-        <v>98.148148148148152</v>
+        <v>98.945518453427056</v>
       </c>
       <c r="E5" s="0">
         <v>50.135501355013545</v>
@@ -398,12 +382,9 @@
         <v>91.349739000745714</v>
       </c>
       <c r="H5" s="0">
-        <v>99.328859060402692</v>
+        <v>99.379707576428885</v>
       </c>
       <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
         <v>89.560029828486208</v>
       </c>
     </row>
@@ -418,7 +399,7 @@
         <v>81.481481481481481</v>
       </c>
       <c r="D6" s="0">
-        <v>98.148148148148152</v>
+        <v>98.769771528998234</v>
       </c>
       <c r="E6" s="0">
         <v>51.490514905149055</v>
@@ -430,12 +411,9 @@
         <v>91.648023862788961</v>
       </c>
       <c r="H6" s="0">
-        <v>99.328859060402692</v>
+        <v>99.202481169694295</v>
       </c>
       <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
         <v>89.261744966442961</v>
       </c>
     </row>
@@ -450,7 +428,7 @@
         <v>81.481481481481481</v>
       </c>
       <c r="D7" s="0">
-        <v>98.148148148148152</v>
+        <v>98.769771528998234</v>
       </c>
       <c r="E7" s="0">
         <v>50.40650406504065</v>
@@ -462,12 +440,9 @@
         <v>91.648023862788961</v>
       </c>
       <c r="H7" s="0">
-        <v>99.254287844891877</v>
+        <v>99.379707576428885</v>
       </c>
       <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
         <v>88.73974645786727</v>
       </c>
     </row>
@@ -482,7 +457,7 @@
         <v>88.888888888888886</v>
       </c>
       <c r="D8" s="0">
-        <v>98.148148148148152</v>
+        <v>98.769771528998234</v>
       </c>
       <c r="E8" s="0">
         <v>50.40650406504065</v>
@@ -494,12 +469,9 @@
         <v>78.374347501864278</v>
       </c>
       <c r="H8" s="0">
-        <v>98.434004474272925</v>
+        <v>98.404962339388575</v>
       </c>
       <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
         <v>84.41461595824012</v>
       </c>
     </row>
@@ -514,7 +486,7 @@
         <v>88.888888888888886</v>
       </c>
       <c r="D9" s="0">
-        <v>98.148148148148152</v>
+        <v>98.418277680140591</v>
       </c>
       <c r="E9" s="0">
         <v>55.284552845528459</v>
@@ -526,12 +498,9 @@
         <v>80.536912751677846</v>
       </c>
       <c r="H9" s="0">
-        <v>96.196868008948542</v>
+        <v>97.252990695613647</v>
       </c>
       <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
         <v>84.787472035794181</v>
       </c>
     </row>
@@ -546,7 +515,7 @@
         <v>88.888888888888886</v>
       </c>
       <c r="D10" s="0">
-        <v>98.148148148148152</v>
+        <v>98.769771528998234</v>
       </c>
       <c r="E10" s="0">
         <v>52.032520325203258</v>
@@ -558,12 +527,9 @@
         <v>80.686055182699477</v>
       </c>
       <c r="H10" s="0">
-        <v>97.390007457121555</v>
+        <v>97.6517501107665</v>
       </c>
       <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
         <v>82.028337061894106</v>
       </c>
     </row>
@@ -578,7 +544,7 @@
         <v>88.518518518518519</v>
       </c>
       <c r="D11" s="0">
-        <v>98.148148148148152</v>
+        <v>98.769771528998234</v>
       </c>
       <c r="E11" s="0">
         <v>51.219512195121951</v>
@@ -590,12 +556,9 @@
         <v>78.523489932885909</v>
       </c>
       <c r="H11" s="0">
-        <v>97.464578672632356</v>
+        <v>97.91758972086842</v>
       </c>
       <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
         <v>84.116331096196873</v>
       </c>
     </row>
@@ -610,7 +573,7 @@
         <v>76.296296296296291</v>
       </c>
       <c r="D12" s="0">
-        <v>97.777777777777771</v>
+        <v>98.242530755711783</v>
       </c>
       <c r="E12" s="0">
         <v>48.238482384823847</v>
@@ -622,12 +585,9 @@
         <v>81.282624906785983</v>
       </c>
       <c r="H12" s="0">
-        <v>96.644295302013433</v>
+        <v>97.164377492246345</v>
       </c>
       <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
         <v>76.510067114093957</v>
       </c>
     </row>
@@ -642,7 +602,7 @@
         <v>83.333333333333343</v>
       </c>
       <c r="D13" s="0">
-        <v>98.148148148148152</v>
+        <v>98.769771528998234</v>
       </c>
       <c r="E13" s="0">
         <v>52.303523035230349</v>
@@ -654,12 +614,9 @@
         <v>84.041759880686044</v>
       </c>
       <c r="H13" s="0">
-        <v>97.31543624161074</v>
+        <v>97.563136907399212</v>
       </c>
       <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
         <v>80.164056674123785</v>
       </c>
     </row>
@@ -674,7 +631,7 @@
         <v>88.518518518518519</v>
       </c>
       <c r="D14" s="0">
-        <v>98.148148148148152</v>
+        <v>98.945518453427056</v>
       </c>
       <c r="E14" s="0">
         <v>51.219512195121951</v>
@@ -686,12 +643,9 @@
         <v>79.791200596569723</v>
       </c>
       <c r="H14" s="0">
-        <v>99.105145413870247</v>
+        <v>99.113867966326978</v>
       </c>
       <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
         <v>83.22147651006712</v>
       </c>
     </row>
@@ -706,7 +660,7 @@
         <v>87.407407407407405</v>
       </c>
       <c r="D15" s="0">
-        <v>98.148148148148152</v>
+        <v>98.594024604569412</v>
       </c>
       <c r="E15" s="0">
         <v>51.761517615176153</v>
@@ -718,12 +672,9 @@
         <v>79.716629381058908</v>
       </c>
       <c r="H15" s="0">
-        <v>97.613721103654001</v>
+        <v>97.341603898980949</v>
       </c>
       <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
         <v>81.87919463087249</v>
       </c>
     </row>
@@ -738,7 +689,7 @@
         <v>88.148148148148152</v>
       </c>
       <c r="D16" s="0">
-        <v>98.148148148148152</v>
+        <v>98.945518453427056</v>
       </c>
       <c r="E16" s="0">
         <v>52.032520325203258</v>
@@ -750,12 +701,9 @@
         <v>82.102908277404921</v>
       </c>
       <c r="H16" s="0">
-        <v>99.105145413870247</v>
+        <v>99.113867966326978</v>
       </c>
       <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
         <v>82.401193139448168</v>
       </c>
     </row>
@@ -770,7 +718,7 @@
         <v>80</v>
       </c>
       <c r="D17" s="0">
-        <v>98.148148148148152</v>
+        <v>98.945518453427056</v>
       </c>
       <c r="E17" s="0">
         <v>50.677506775067748</v>
@@ -782,12 +730,9 @@
         <v>81.058911260253538</v>
       </c>
       <c r="H17" s="0">
-        <v>98.434004474272925</v>
+        <v>98.89233495790873</v>
       </c>
       <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
         <v>92.393736017897083</v>
       </c>
     </row>
@@ -802,7 +747,7 @@
         <v>81.851851851851848</v>
       </c>
       <c r="D18" s="0">
-        <v>98.148148148148152</v>
+        <v>98.945518453427056</v>
       </c>
       <c r="E18" s="0">
         <v>50.40650406504065</v>
@@ -814,12 +759,9 @@
         <v>83.743475018642798</v>
       </c>
       <c r="H18" s="0">
-        <v>99.179716629381048</v>
+        <v>99.335400974745241</v>
       </c>
       <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
         <v>95.227442207307973</v>
       </c>
     </row>
@@ -834,7 +776,7 @@
         <v>84.074074074074076</v>
       </c>
       <c r="D19" s="0">
-        <v>98.148148148148152</v>
+        <v>98.945518453427056</v>
       </c>
       <c r="E19" s="0">
         <v>53.658536585365859</v>
@@ -846,12 +788,9 @@
         <v>87.322893363161825</v>
       </c>
       <c r="H19" s="0">
-        <v>98.359433258762124</v>
+        <v>98.89233495790873</v>
       </c>
       <c r="I19" s="0">
-        <v>0</v>
-      </c>
-      <c r="J19" s="0">
         <v>97.017151379567494</v>
       </c>
     </row>
@@ -866,7 +805,7 @@
         <v>85.925925925925924</v>
       </c>
       <c r="D20" s="0">
-        <v>98.148148148148152</v>
+        <v>98.594024604569412</v>
       </c>
       <c r="E20" s="0">
         <v>56.36856368563685</v>
@@ -878,12 +817,9 @@
         <v>88.73974645786727</v>
       </c>
       <c r="H20" s="0">
-        <v>99.179716629381048</v>
+        <v>99.202481169694295</v>
       </c>
       <c r="I20" s="0">
-        <v>0</v>
-      </c>
-      <c r="J20" s="0">
         <v>91.946308724832221</v>
       </c>
     </row>
@@ -898,7 +834,7 @@
         <v>87.407407407407405</v>
       </c>
       <c r="D21" s="0">
-        <v>98.148148148148152</v>
+        <v>98.594024604569412</v>
       </c>
       <c r="E21" s="0">
         <v>56.639566395663955</v>
@@ -910,12 +846,9 @@
         <v>89.112602535421331</v>
       </c>
       <c r="H21" s="0">
-        <v>99.179716629381048</v>
+        <v>99.246787771377925</v>
       </c>
       <c r="I21" s="0">
-        <v>0</v>
-      </c>
-      <c r="J21" s="0">
         <v>92.393736017897083</v>
       </c>
     </row>
@@ -930,7 +863,7 @@
         <v>87.407407407407405</v>
       </c>
       <c r="D22" s="0">
-        <v>97.777777777777771</v>
+        <v>98.594024604569412</v>
       </c>
       <c r="E22" s="0">
         <v>50.135501355013545</v>
@@ -942,12 +875,9 @@
         <v>88.814317673378071</v>
       </c>
       <c r="H22" s="0">
-        <v>99.030574198359432</v>
+        <v>99.202481169694295</v>
       </c>
       <c r="I22" s="0">
-        <v>0</v>
-      </c>
-      <c r="J22" s="0">
         <v>92.915734526472775</v>
       </c>
     </row>
@@ -962,7 +892,7 @@
         <v>77.777777777777786</v>
       </c>
       <c r="D23" s="0">
-        <v>98.148148148148152</v>
+        <v>98.418277680140591</v>
       </c>
       <c r="E23" s="0">
         <v>46.341463414634148</v>
@@ -974,12 +904,9 @@
         <v>87.173750932140194</v>
       </c>
       <c r="H23" s="0">
-        <v>98.65771812080537</v>
+        <v>97.91758972086842</v>
       </c>
       <c r="I23" s="0">
-        <v>0</v>
-      </c>
-      <c r="J23" s="0">
         <v>90.902311707680838</v>
       </c>
     </row>
@@ -994,7 +921,7 @@
         <v>77.407407407407405</v>
       </c>
       <c r="D24" s="0">
-        <v>97.777777777777771</v>
+        <v>98.594024604569412</v>
       </c>
       <c r="E24" s="0">
         <v>42.547425474254737</v>
@@ -1006,12 +933,9 @@
         <v>90.007457121551084</v>
       </c>
       <c r="H24" s="0">
-        <v>98.65771812080537</v>
+        <v>98.582188746123165</v>
       </c>
       <c r="I24" s="0">
-        <v>0</v>
-      </c>
-      <c r="J24" s="0">
         <v>90.23117076808353</v>
       </c>
     </row>
@@ -1026,7 +950,7 @@
         <v>76.296296296296291</v>
       </c>
       <c r="D25" s="0">
-        <v>97.777777777777771</v>
+        <v>98.066783831282962</v>
       </c>
       <c r="E25" s="0">
         <v>42.276422764227647</v>
@@ -1038,12 +962,9 @@
         <v>89.932885906040269</v>
       </c>
       <c r="H25" s="0">
-        <v>98.359433258762124</v>
+        <v>98.626495347806824</v>
       </c>
       <c r="I25" s="0">
-        <v>0</v>
-      </c>
-      <c r="J25" s="0">
         <v>90.082028337061899</v>
       </c>
     </row>
@@ -1070,12 +991,9 @@
         <v>84.41461595824012</v>
       </c>
       <c r="H26" s="0">
-        <v>97.986577181208062</v>
+        <v>98.404962339388575</v>
       </c>
       <c r="I26" s="0">
-        <v>0</v>
-      </c>
-      <c r="J26" s="0">
         <v>85.90604026845638</v>
       </c>
     </row>
@@ -1090,7 +1008,7 @@
         <v>84.444444444444443</v>
       </c>
       <c r="D27" s="0">
-        <v>98.148148148148152</v>
+        <v>98.945518453427056</v>
       </c>
       <c r="E27" s="0">
         <v>51.219512195121951</v>
@@ -1102,12 +1020,9 @@
         <v>84.190902311707688</v>
       </c>
       <c r="H27" s="0">
-        <v>99.179716629381048</v>
+        <v>99.424014178112543</v>
       </c>
       <c r="I27" s="0">
-        <v>0</v>
-      </c>
-      <c r="J27" s="0">
         <v>82.997762863534675</v>
       </c>
     </row>
@@ -1134,12 +1049,9 @@
         <v>84.489187173750935</v>
       </c>
       <c r="H28" s="0">
-        <v>99.328859060402692</v>
+        <v>99.512627381479845</v>
       </c>
       <c r="I28" s="0">
-        <v>0</v>
-      </c>
-      <c r="J28" s="0">
         <v>86.278896346010441</v>
       </c>
     </row>
@@ -1154,7 +1066,7 @@
         <v>83.333333333333343</v>
       </c>
       <c r="D29" s="0">
-        <v>97.777777777777771</v>
+        <v>98.418277680140591</v>
       </c>
       <c r="E29" s="0">
         <v>50.135501355013545</v>
@@ -1166,12 +1078,9 @@
         <v>82.102908277404921</v>
       </c>
       <c r="H29" s="0">
-        <v>98.881431767337816</v>
+        <v>98.670801949490468</v>
       </c>
       <c r="I29" s="0">
-        <v>0</v>
-      </c>
-      <c r="J29" s="0">
         <v>84.712900820283366</v>
       </c>
     </row>
@@ -1186,7 +1095,7 @@
         <v>81.851851851851848</v>
       </c>
       <c r="D30" s="0">
-        <v>97.407407407407405</v>
+        <v>98.594024604569412</v>
       </c>
       <c r="E30" s="0">
         <v>50.948509485094853</v>
@@ -1198,12 +1107,9 @@
         <v>81.282624906785983</v>
       </c>
       <c r="H30" s="0">
-        <v>98.806860551826986</v>
+        <v>99.069561364643334</v>
       </c>
       <c r="I30" s="0">
-        <v>0</v>
-      </c>
-      <c r="J30" s="0">
         <v>77.926920208799402</v>
       </c>
     </row>
@@ -1218,7 +1124,7 @@
         <v>83.703703703703695</v>
       </c>
       <c r="D31" s="0">
-        <v>97.777777777777771</v>
+        <v>98.945518453427056</v>
       </c>
       <c r="E31" s="0">
         <v>51.761517615176153</v>
@@ -1230,12 +1136,9 @@
         <v>82.177479492915737</v>
       </c>
       <c r="H31" s="0">
-        <v>99.030574198359432</v>
+        <v>99.246787771377925</v>
       </c>
       <c r="I31" s="0">
-        <v>0</v>
-      </c>
-      <c r="J31" s="0">
         <v>93.363161819537652</v>
       </c>
     </row>
@@ -1250,7 +1153,7 @@
         <v>81.851851851851848</v>
       </c>
       <c r="D32" s="0">
-        <v>97.777777777777771</v>
+        <v>98.769771528998234</v>
       </c>
       <c r="E32" s="0">
         <v>46.883468834688344</v>
@@ -1262,12 +1165,9 @@
         <v>88.292319164802393</v>
       </c>
       <c r="H32" s="0">
-        <v>99.179716629381048</v>
+        <v>99.291094373061583</v>
       </c>
       <c r="I32" s="0">
-        <v>0</v>
-      </c>
-      <c r="J32" s="0">
         <v>95.973154362416096</v>
       </c>
     </row>
@@ -1282,7 +1182,7 @@
         <v>82.962962962962962</v>
       </c>
       <c r="D33" s="0">
-        <v>98.148148148148152</v>
+        <v>98.945518453427056</v>
       </c>
       <c r="E33" s="0">
         <v>46.070460704607044</v>
@@ -1294,12 +1194,9 @@
         <v>94.034302759134974</v>
       </c>
       <c r="H33" s="0">
-        <v>99.105145413870247</v>
+        <v>99.202481169694295</v>
       </c>
       <c r="I33" s="0">
-        <v>0</v>
-      </c>
-      <c r="J33" s="0">
         <v>93.214019388516036</v>
       </c>
     </row>
@@ -1314,7 +1211,7 @@
         <v>82.222222222222214</v>
       </c>
       <c r="D34" s="0">
-        <v>98.148148148148152</v>
+        <v>98.945518453427056</v>
       </c>
       <c r="E34" s="0">
         <v>46.883468834688344</v>
@@ -1326,12 +1223,9 @@
         <v>91.648023862788961</v>
       </c>
       <c r="H34" s="0">
-        <v>99.328859060402692</v>
+        <v>99.468320779796187</v>
       </c>
       <c r="I34" s="0">
-        <v>0</v>
-      </c>
-      <c r="J34" s="0">
         <v>96.346010439970172</v>
       </c>
     </row>
@@ -1346,7 +1240,7 @@
         <v>80</v>
       </c>
       <c r="D35" s="0">
-        <v>99.259259259259252</v>
+        <v>99.121265377855877</v>
       </c>
       <c r="E35" s="0">
         <v>44.444444444444443</v>
@@ -1358,12 +1252,9 @@
         <v>86.577181208053688</v>
       </c>
       <c r="H35" s="0">
-        <v>98.434004474272925</v>
+        <v>98.715108551174126</v>
       </c>
       <c r="I35" s="0">
-        <v>0</v>
-      </c>
-      <c r="J35" s="0">
         <v>95.600298284862035</v>
       </c>
     </row>
@@ -1378,7 +1269,7 @@
         <v>80.370370370370367</v>
       </c>
       <c r="D36" s="0">
-        <v>97.407407407407405</v>
+        <v>97.89103690685414</v>
       </c>
       <c r="E36" s="0">
         <v>43.089430894308947</v>
@@ -1390,12 +1281,9 @@
         <v>93.586875466070097</v>
       </c>
       <c r="H36" s="0">
-        <v>98.359433258762124</v>
+        <v>98.582188746123165</v>
       </c>
       <c r="I36" s="0">
-        <v>0</v>
-      </c>
-      <c r="J36" s="0">
         <v>92.244593586875467</v>
       </c>
     </row>
@@ -1410,7 +1298,7 @@
         <v>78.518518518518519</v>
       </c>
       <c r="D37" s="0">
-        <v>97.777777777777771</v>
+        <v>97.539543057996482</v>
       </c>
       <c r="E37" s="0">
         <v>55.013550135501355</v>
@@ -1422,12 +1310,9 @@
         <v>83.22147651006712</v>
       </c>
       <c r="H37" s="0">
-        <v>98.210290827740494</v>
+        <v>98.050509525919367</v>
       </c>
       <c r="I37" s="0">
-        <v>0</v>
-      </c>
-      <c r="J37" s="0">
         <v>94.034302759134974</v>
       </c>
     </row>
@@ -1442,7 +1327,7 @@
         <v>80.370370370370367</v>
       </c>
       <c r="D38" s="0">
-        <v>97.407407407407405</v>
+        <v>98.418277680140591</v>
       </c>
       <c r="E38" s="0">
         <v>39.024390243902438</v>
@@ -1454,12 +1339,9 @@
         <v>90.23117076808353</v>
       </c>
       <c r="H38" s="0">
-        <v>98.434004474272925</v>
+        <v>98.89233495790873</v>
       </c>
       <c r="I38" s="0">
-        <v>0</v>
-      </c>
-      <c r="J38" s="0">
         <v>87.39746457867264</v>
       </c>
     </row>
@@ -1474,7 +1356,7 @@
         <v>77.407407407407405</v>
       </c>
       <c r="D39" s="0">
-        <v>99.629629629629633</v>
+        <v>99.648506151142357</v>
       </c>
       <c r="E39" s="0">
         <v>39.566395663956641</v>
@@ -1486,12 +1368,9 @@
         <v>86.204325130499626</v>
       </c>
       <c r="H39" s="0">
-        <v>98.583146905294555</v>
+        <v>98.493575542755877</v>
       </c>
       <c r="I39" s="0">
-        <v>0</v>
-      </c>
-      <c r="J39" s="0">
         <v>90.529455630126776</v>
       </c>
     </row>
@@ -1506,7 +1385,7 @@
         <v>77.407407407407405</v>
       </c>
       <c r="D40" s="0">
-        <v>100</v>
+        <v>99.824253075571178</v>
       </c>
       <c r="E40" s="0">
         <v>42.818428184281842</v>
@@ -1518,12 +1397,9 @@
         <v>87.099179716629379</v>
       </c>
       <c r="H40" s="0">
-        <v>98.65771812080537</v>
+        <v>98.936641559592374</v>
       </c>
       <c r="I40" s="0">
-        <v>0</v>
-      </c>
-      <c r="J40" s="0">
         <v>87.173750932140194</v>
       </c>
     </row>
@@ -1538,7 +1414,7 @@
         <v>85.925925925925924</v>
       </c>
       <c r="D41" s="0">
-        <v>98.148148148148152</v>
+        <v>98.945518453427056</v>
       </c>
       <c r="E41" s="0">
         <v>58.536585365853654</v>
@@ -1550,12 +1426,9 @@
         <v>81.208053691275168</v>
       </c>
       <c r="H41" s="0">
-        <v>98.881431767337816</v>
+        <v>99.158174568010637</v>
       </c>
       <c r="I41" s="0">
-        <v>0</v>
-      </c>
-      <c r="J41" s="0">
         <v>83.296047725577921</v>
       </c>
     </row>
@@ -1570,7 +1443,7 @@
         <v>87.037037037037038</v>
       </c>
       <c r="D42" s="0">
-        <v>98.148148148148152</v>
+        <v>98.769771528998234</v>
       </c>
       <c r="E42" s="0">
         <v>52.574525745257446</v>
@@ -1582,12 +1455,9 @@
         <v>81.357196122296799</v>
       </c>
       <c r="H42" s="0">
-        <v>99.254287844891877</v>
+        <v>99.424014178112543</v>
       </c>
       <c r="I42" s="0">
-        <v>0</v>
-      </c>
-      <c r="J42" s="0">
         <v>85.384041759880688</v>
       </c>
     </row>
@@ -1602,7 +1472,7 @@
         <v>86.296296296296291</v>
       </c>
       <c r="D43" s="0">
-        <v>97.777777777777771</v>
+        <v>98.769771528998234</v>
       </c>
       <c r="E43" s="0">
         <v>53.116531165311656</v>
@@ -1614,12 +1484,9 @@
         <v>79.716629381058908</v>
       </c>
       <c r="H43" s="0">
-        <v>99.105145413870247</v>
+        <v>99.379707576428885</v>
       </c>
       <c r="I43" s="0">
-        <v>0</v>
-      </c>
-      <c r="J43" s="0">
         <v>85.607755406413119</v>
       </c>
     </row>
@@ -1634,7 +1501,7 @@
         <v>85.555555555555557</v>
       </c>
       <c r="D44" s="0">
-        <v>98.148148148148152</v>
+        <v>98.769771528998234</v>
       </c>
       <c r="E44" s="0">
         <v>54.200542005420047</v>
@@ -1646,12 +1513,9 @@
         <v>80.462341536167031</v>
       </c>
       <c r="H44" s="0">
-        <v>99.030574198359432</v>
+        <v>99.113867966326978</v>
       </c>
       <c r="I44" s="0">
-        <v>0</v>
-      </c>
-      <c r="J44" s="0">
         <v>81.058911260253538</v>
       </c>
     </row>
@@ -1666,7 +1530,7 @@
         <v>85.925925925925924</v>
       </c>
       <c r="D45" s="0">
-        <v>98.148148148148152</v>
+        <v>98.945518453427056</v>
       </c>
       <c r="E45" s="0">
         <v>50.40650406504065</v>
@@ -1678,12 +1542,9 @@
         <v>84.787472035794181</v>
       </c>
       <c r="H45" s="0">
-        <v>98.806860551826986</v>
+        <v>98.980948161276032</v>
       </c>
       <c r="I45" s="0">
-        <v>0</v>
-      </c>
-      <c r="J45" s="0">
         <v>89.336316181953762</v>
       </c>
     </row>
@@ -1698,7 +1559,7 @@
         <v>85.555555555555557</v>
       </c>
       <c r="D46" s="0">
-        <v>98.148148148148152</v>
+        <v>98.769771528998234</v>
       </c>
       <c r="E46" s="0">
         <v>50.677506775067748</v>
@@ -1710,12 +1571,9 @@
         <v>84.041759880686044</v>
       </c>
       <c r="H46" s="0">
-        <v>98.956002982848617</v>
+        <v>99.069561364643334</v>
       </c>
       <c r="I46" s="0">
-        <v>0</v>
-      </c>
-      <c r="J46" s="0">
         <v>83.892617449664428</v>
       </c>
     </row>
@@ -1730,7 +1588,7 @@
         <v>78.888888888888886</v>
       </c>
       <c r="D47" s="0">
-        <v>98.148148148148152</v>
+        <v>98.945518453427056</v>
       </c>
       <c r="E47" s="0">
         <v>49.322493224932252</v>
@@ -1742,12 +1600,9 @@
         <v>81.133482475764353</v>
       </c>
       <c r="H47" s="0">
-        <v>98.434004474272925</v>
+        <v>98.360655737704917</v>
       </c>
       <c r="I47" s="0">
-        <v>0</v>
-      </c>
-      <c r="J47" s="0">
         <v>90.007457121551084</v>
       </c>
     </row>
@@ -1762,7 +1617,7 @@
         <v>79.629629629629633</v>
       </c>
       <c r="D48" s="0">
-        <v>98.148148148148152</v>
+        <v>98.769771528998234</v>
       </c>
       <c r="E48" s="0">
         <v>60.433604336043359</v>
@@ -1774,12 +1629,9 @@
         <v>81.133482475764353</v>
       </c>
       <c r="H48" s="0">
-        <v>96.718866517524233</v>
+        <v>97.696056712450158</v>
       </c>
       <c r="I48" s="0">
-        <v>0</v>
-      </c>
-      <c r="J48" s="0">
         <v>82.699478001491428</v>
       </c>
     </row>
@@ -1794,7 +1646,7 @@
         <v>84.074074074074076</v>
       </c>
       <c r="D49" s="0">
-        <v>98.148148148148152</v>
+        <v>98.945518453427056</v>
       </c>
       <c r="E49" s="0">
         <v>50.677506775067748</v>
@@ -1806,12 +1658,9 @@
         <v>81.357196122296799</v>
       </c>
       <c r="H49" s="0">
-        <v>99.179716629381048</v>
+        <v>99.424014178112543</v>
       </c>
       <c r="I49" s="0">
-        <v>0</v>
-      </c>
-      <c r="J49" s="0">
         <v>89.858314690529454</v>
       </c>
     </row>

--- a/Thresholding/Results/results_table_NHKG.xlsx
+++ b/Thresholding/Results/results_table_NHKG.xlsx
@@ -283,7 +283,7 @@
         <v>84.81481481481481</v>
       </c>
       <c r="D2" s="0">
-        <v>98.945518453427056</v>
+        <v>97.777777777777771</v>
       </c>
       <c r="E2" s="0">
         <v>50.135501355013545</v>
@@ -295,7 +295,7 @@
         <v>87.39746457867264</v>
       </c>
       <c r="H2" s="0">
-        <v>97.474523704031895</v>
+        <v>97.16629381058911</v>
       </c>
       <c r="I2" s="0">
         <v>93.139448173005221</v>
@@ -312,7 +312,7 @@
         <v>83.703703703703695</v>
       </c>
       <c r="D3" s="0">
-        <v>98.945518453427056</v>
+        <v>97.777777777777771</v>
       </c>
       <c r="E3" s="0">
         <v>50.135501355013545</v>
@@ -324,7 +324,7 @@
         <v>87.695749440715886</v>
       </c>
       <c r="H3" s="0">
-        <v>99.025254762959676</v>
+        <v>99.030574198359432</v>
       </c>
       <c r="I3" s="0">
         <v>92.244593586875467</v>
@@ -341,7 +341,7 @@
         <v>85.18518518518519</v>
       </c>
       <c r="D4" s="0">
-        <v>98.594024604569412</v>
+        <v>97.777777777777771</v>
       </c>
       <c r="E4" s="0">
         <v>49.59349593495935</v>
@@ -353,7 +353,7 @@
         <v>88.441461595824009</v>
       </c>
       <c r="H4" s="0">
-        <v>97.563136907399212</v>
+        <v>96.942580164056665</v>
       </c>
       <c r="I4" s="0">
         <v>93.437733035048481</v>
@@ -370,7 +370,7 @@
         <v>79.629629629629633</v>
       </c>
       <c r="D5" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="E5" s="0">
         <v>50.135501355013545</v>
@@ -382,7 +382,7 @@
         <v>91.349739000745714</v>
       </c>
       <c r="H5" s="0">
-        <v>99.379707576428885</v>
+        <v>99.328859060402692</v>
       </c>
       <c r="I5" s="0">
         <v>89.560029828486208</v>
@@ -399,7 +399,7 @@
         <v>81.481481481481481</v>
       </c>
       <c r="D6" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="E6" s="0">
         <v>51.490514905149055</v>
@@ -411,7 +411,7 @@
         <v>91.648023862788961</v>
       </c>
       <c r="H6" s="0">
-        <v>99.202481169694295</v>
+        <v>99.328859060402692</v>
       </c>
       <c r="I6" s="0">
         <v>89.261744966442961</v>
@@ -428,7 +428,7 @@
         <v>81.481481481481481</v>
       </c>
       <c r="D7" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="E7" s="0">
         <v>50.40650406504065</v>
@@ -440,7 +440,7 @@
         <v>91.648023862788961</v>
       </c>
       <c r="H7" s="0">
-        <v>99.379707576428885</v>
+        <v>99.254287844891877</v>
       </c>
       <c r="I7" s="0">
         <v>88.73974645786727</v>
@@ -457,7 +457,7 @@
         <v>88.888888888888886</v>
       </c>
       <c r="D8" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="E8" s="0">
         <v>50.40650406504065</v>
@@ -469,7 +469,7 @@
         <v>78.374347501864278</v>
       </c>
       <c r="H8" s="0">
-        <v>98.404962339388575</v>
+        <v>98.434004474272925</v>
       </c>
       <c r="I8" s="0">
         <v>84.41461595824012</v>
@@ -486,7 +486,7 @@
         <v>88.888888888888886</v>
       </c>
       <c r="D9" s="0">
-        <v>98.418277680140591</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="E9" s="0">
         <v>55.284552845528459</v>
@@ -498,7 +498,7 @@
         <v>80.536912751677846</v>
       </c>
       <c r="H9" s="0">
-        <v>97.252990695613647</v>
+        <v>96.196868008948542</v>
       </c>
       <c r="I9" s="0">
         <v>84.787472035794181</v>
@@ -515,7 +515,7 @@
         <v>88.888888888888886</v>
       </c>
       <c r="D10" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="E10" s="0">
         <v>52.032520325203258</v>
@@ -527,7 +527,7 @@
         <v>80.686055182699477</v>
       </c>
       <c r="H10" s="0">
-        <v>97.6517501107665</v>
+        <v>97.390007457121555</v>
       </c>
       <c r="I10" s="0">
         <v>82.028337061894106</v>
@@ -544,7 +544,7 @@
         <v>88.518518518518519</v>
       </c>
       <c r="D11" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="E11" s="0">
         <v>51.219512195121951</v>
@@ -556,7 +556,7 @@
         <v>78.523489932885909</v>
       </c>
       <c r="H11" s="0">
-        <v>97.91758972086842</v>
+        <v>97.464578672632356</v>
       </c>
       <c r="I11" s="0">
         <v>84.116331096196873</v>
@@ -573,7 +573,7 @@
         <v>76.296296296296291</v>
       </c>
       <c r="D12" s="0">
-        <v>98.242530755711783</v>
+        <v>97.777777777777771</v>
       </c>
       <c r="E12" s="0">
         <v>48.238482384823847</v>
@@ -585,7 +585,7 @@
         <v>81.282624906785983</v>
       </c>
       <c r="H12" s="0">
-        <v>97.164377492246345</v>
+        <v>96.644295302013433</v>
       </c>
       <c r="I12" s="0">
         <v>76.510067114093957</v>
@@ -602,7 +602,7 @@
         <v>83.333333333333343</v>
       </c>
       <c r="D13" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="E13" s="0">
         <v>52.303523035230349</v>
@@ -614,7 +614,7 @@
         <v>84.041759880686044</v>
       </c>
       <c r="H13" s="0">
-        <v>97.563136907399212</v>
+        <v>97.31543624161074</v>
       </c>
       <c r="I13" s="0">
         <v>80.164056674123785</v>
@@ -631,7 +631,7 @@
         <v>88.518518518518519</v>
       </c>
       <c r="D14" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="E14" s="0">
         <v>51.219512195121951</v>
@@ -643,7 +643,7 @@
         <v>79.791200596569723</v>
       </c>
       <c r="H14" s="0">
-        <v>99.113867966326978</v>
+        <v>99.105145413870247</v>
       </c>
       <c r="I14" s="0">
         <v>83.22147651006712</v>
@@ -660,7 +660,7 @@
         <v>87.407407407407405</v>
       </c>
       <c r="D15" s="0">
-        <v>98.594024604569412</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="E15" s="0">
         <v>51.761517615176153</v>
@@ -672,7 +672,7 @@
         <v>79.716629381058908</v>
       </c>
       <c r="H15" s="0">
-        <v>97.341603898980949</v>
+        <v>97.613721103654001</v>
       </c>
       <c r="I15" s="0">
         <v>81.87919463087249</v>
@@ -689,7 +689,7 @@
         <v>88.148148148148152</v>
       </c>
       <c r="D16" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="E16" s="0">
         <v>52.032520325203258</v>
@@ -701,7 +701,7 @@
         <v>82.102908277404921</v>
       </c>
       <c r="H16" s="0">
-        <v>99.113867966326978</v>
+        <v>99.105145413870247</v>
       </c>
       <c r="I16" s="0">
         <v>82.401193139448168</v>
@@ -718,7 +718,7 @@
         <v>80</v>
       </c>
       <c r="D17" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="E17" s="0">
         <v>50.677506775067748</v>
@@ -730,7 +730,7 @@
         <v>81.058911260253538</v>
       </c>
       <c r="H17" s="0">
-        <v>98.89233495790873</v>
+        <v>98.434004474272925</v>
       </c>
       <c r="I17" s="0">
         <v>92.393736017897083</v>
@@ -747,7 +747,7 @@
         <v>81.851851851851848</v>
       </c>
       <c r="D18" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="E18" s="0">
         <v>50.40650406504065</v>
@@ -759,7 +759,7 @@
         <v>83.743475018642798</v>
       </c>
       <c r="H18" s="0">
-        <v>99.335400974745241</v>
+        <v>99.179716629381048</v>
       </c>
       <c r="I18" s="0">
         <v>95.227442207307973</v>
@@ -776,7 +776,7 @@
         <v>84.074074074074076</v>
       </c>
       <c r="D19" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="E19" s="0">
         <v>53.658536585365859</v>
@@ -788,7 +788,7 @@
         <v>87.322893363161825</v>
       </c>
       <c r="H19" s="0">
-        <v>98.89233495790873</v>
+        <v>98.359433258762124</v>
       </c>
       <c r="I19" s="0">
         <v>97.017151379567494</v>
@@ -805,7 +805,7 @@
         <v>85.925925925925924</v>
       </c>
       <c r="D20" s="0">
-        <v>98.594024604569412</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="E20" s="0">
         <v>56.36856368563685</v>
@@ -817,7 +817,7 @@
         <v>88.73974645786727</v>
       </c>
       <c r="H20" s="0">
-        <v>99.202481169694295</v>
+        <v>99.179716629381048</v>
       </c>
       <c r="I20" s="0">
         <v>91.946308724832221</v>
@@ -834,7 +834,7 @@
         <v>87.407407407407405</v>
       </c>
       <c r="D21" s="0">
-        <v>98.594024604569412</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="E21" s="0">
         <v>56.639566395663955</v>
@@ -846,7 +846,7 @@
         <v>89.112602535421331</v>
       </c>
       <c r="H21" s="0">
-        <v>99.246787771377925</v>
+        <v>99.179716629381048</v>
       </c>
       <c r="I21" s="0">
         <v>92.393736017897083</v>
@@ -863,7 +863,7 @@
         <v>87.407407407407405</v>
       </c>
       <c r="D22" s="0">
-        <v>98.594024604569412</v>
+        <v>97.777777777777771</v>
       </c>
       <c r="E22" s="0">
         <v>50.135501355013545</v>
@@ -875,7 +875,7 @@
         <v>88.814317673378071</v>
       </c>
       <c r="H22" s="0">
-        <v>99.202481169694295</v>
+        <v>99.030574198359432</v>
       </c>
       <c r="I22" s="0">
         <v>92.915734526472775</v>
@@ -892,7 +892,7 @@
         <v>77.777777777777786</v>
       </c>
       <c r="D23" s="0">
-        <v>98.418277680140591</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="E23" s="0">
         <v>46.341463414634148</v>
@@ -904,7 +904,7 @@
         <v>87.173750932140194</v>
       </c>
       <c r="H23" s="0">
-        <v>97.91758972086842</v>
+        <v>98.65771812080537</v>
       </c>
       <c r="I23" s="0">
         <v>90.902311707680838</v>
@@ -921,7 +921,7 @@
         <v>77.407407407407405</v>
       </c>
       <c r="D24" s="0">
-        <v>98.594024604569412</v>
+        <v>97.777777777777771</v>
       </c>
       <c r="E24" s="0">
         <v>42.547425474254737</v>
@@ -933,7 +933,7 @@
         <v>90.007457121551084</v>
       </c>
       <c r="H24" s="0">
-        <v>98.582188746123165</v>
+        <v>98.65771812080537</v>
       </c>
       <c r="I24" s="0">
         <v>90.23117076808353</v>
@@ -950,7 +950,7 @@
         <v>76.296296296296291</v>
       </c>
       <c r="D25" s="0">
-        <v>98.066783831282962</v>
+        <v>97.777777777777771</v>
       </c>
       <c r="E25" s="0">
         <v>42.276422764227647</v>
@@ -962,7 +962,7 @@
         <v>89.932885906040269</v>
       </c>
       <c r="H25" s="0">
-        <v>98.626495347806824</v>
+        <v>98.359433258762124</v>
       </c>
       <c r="I25" s="0">
         <v>90.082028337061899</v>
@@ -991,7 +991,7 @@
         <v>84.41461595824012</v>
       </c>
       <c r="H26" s="0">
-        <v>98.404962339388575</v>
+        <v>97.986577181208062</v>
       </c>
       <c r="I26" s="0">
         <v>85.90604026845638</v>
@@ -1008,7 +1008,7 @@
         <v>84.444444444444443</v>
       </c>
       <c r="D27" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="E27" s="0">
         <v>51.219512195121951</v>
@@ -1020,7 +1020,7 @@
         <v>84.190902311707688</v>
       </c>
       <c r="H27" s="0">
-        <v>99.424014178112543</v>
+        <v>99.179716629381048</v>
       </c>
       <c r="I27" s="0">
         <v>82.997762863534675</v>
@@ -1049,7 +1049,7 @@
         <v>84.489187173750935</v>
       </c>
       <c r="H28" s="0">
-        <v>99.512627381479845</v>
+        <v>99.328859060402692</v>
       </c>
       <c r="I28" s="0">
         <v>86.278896346010441</v>
@@ -1066,7 +1066,7 @@
         <v>83.333333333333343</v>
       </c>
       <c r="D29" s="0">
-        <v>98.418277680140591</v>
+        <v>97.777777777777771</v>
       </c>
       <c r="E29" s="0">
         <v>50.135501355013545</v>
@@ -1078,7 +1078,7 @@
         <v>82.102908277404921</v>
       </c>
       <c r="H29" s="0">
-        <v>98.670801949490468</v>
+        <v>98.881431767337816</v>
       </c>
       <c r="I29" s="0">
         <v>84.712900820283366</v>
@@ -1095,7 +1095,7 @@
         <v>81.851851851851848</v>
       </c>
       <c r="D30" s="0">
-        <v>98.594024604569412</v>
+        <v>97.407407407407405</v>
       </c>
       <c r="E30" s="0">
         <v>50.948509485094853</v>
@@ -1107,7 +1107,7 @@
         <v>81.282624906785983</v>
       </c>
       <c r="H30" s="0">
-        <v>99.069561364643334</v>
+        <v>98.806860551826986</v>
       </c>
       <c r="I30" s="0">
         <v>77.926920208799402</v>
@@ -1124,7 +1124,7 @@
         <v>83.703703703703695</v>
       </c>
       <c r="D31" s="0">
-        <v>98.945518453427056</v>
+        <v>97.777777777777771</v>
       </c>
       <c r="E31" s="0">
         <v>51.761517615176153</v>
@@ -1136,7 +1136,7 @@
         <v>82.177479492915737</v>
       </c>
       <c r="H31" s="0">
-        <v>99.246787771377925</v>
+        <v>99.030574198359432</v>
       </c>
       <c r="I31" s="0">
         <v>93.363161819537652</v>
@@ -1153,7 +1153,7 @@
         <v>81.851851851851848</v>
       </c>
       <c r="D32" s="0">
-        <v>98.769771528998234</v>
+        <v>97.777777777777771</v>
       </c>
       <c r="E32" s="0">
         <v>46.883468834688344</v>
@@ -1165,7 +1165,7 @@
         <v>88.292319164802393</v>
       </c>
       <c r="H32" s="0">
-        <v>99.291094373061583</v>
+        <v>99.179716629381048</v>
       </c>
       <c r="I32" s="0">
         <v>95.973154362416096</v>
@@ -1182,7 +1182,7 @@
         <v>82.962962962962962</v>
       </c>
       <c r="D33" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="E33" s="0">
         <v>46.070460704607044</v>
@@ -1194,7 +1194,7 @@
         <v>94.034302759134974</v>
       </c>
       <c r="H33" s="0">
-        <v>99.202481169694295</v>
+        <v>99.105145413870247</v>
       </c>
       <c r="I33" s="0">
         <v>93.214019388516036</v>
@@ -1211,7 +1211,7 @@
         <v>82.222222222222214</v>
       </c>
       <c r="D34" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="E34" s="0">
         <v>46.883468834688344</v>
@@ -1223,7 +1223,7 @@
         <v>91.648023862788961</v>
       </c>
       <c r="H34" s="0">
-        <v>99.468320779796187</v>
+        <v>99.328859060402692</v>
       </c>
       <c r="I34" s="0">
         <v>96.346010439970172</v>
@@ -1240,7 +1240,7 @@
         <v>80</v>
       </c>
       <c r="D35" s="0">
-        <v>99.121265377855877</v>
+        <v>99.259259259259252</v>
       </c>
       <c r="E35" s="0">
         <v>44.444444444444443</v>
@@ -1252,7 +1252,7 @@
         <v>86.577181208053688</v>
       </c>
       <c r="H35" s="0">
-        <v>98.715108551174126</v>
+        <v>98.434004474272925</v>
       </c>
       <c r="I35" s="0">
         <v>95.600298284862035</v>
@@ -1269,7 +1269,7 @@
         <v>80.370370370370367</v>
       </c>
       <c r="D36" s="0">
-        <v>97.89103690685414</v>
+        <v>97.407407407407405</v>
       </c>
       <c r="E36" s="0">
         <v>43.089430894308947</v>
@@ -1281,7 +1281,7 @@
         <v>93.586875466070097</v>
       </c>
       <c r="H36" s="0">
-        <v>98.582188746123165</v>
+        <v>98.359433258762124</v>
       </c>
       <c r="I36" s="0">
         <v>92.244593586875467</v>
@@ -1298,7 +1298,7 @@
         <v>78.518518518518519</v>
       </c>
       <c r="D37" s="0">
-        <v>97.539543057996482</v>
+        <v>97.777777777777771</v>
       </c>
       <c r="E37" s="0">
         <v>55.013550135501355</v>
@@ -1310,7 +1310,7 @@
         <v>83.22147651006712</v>
       </c>
       <c r="H37" s="0">
-        <v>98.050509525919367</v>
+        <v>98.210290827740494</v>
       </c>
       <c r="I37" s="0">
         <v>94.034302759134974</v>
@@ -1327,7 +1327,7 @@
         <v>80.370370370370367</v>
       </c>
       <c r="D38" s="0">
-        <v>98.418277680140591</v>
+        <v>97.407407407407405</v>
       </c>
       <c r="E38" s="0">
         <v>39.024390243902438</v>
@@ -1339,7 +1339,7 @@
         <v>90.23117076808353</v>
       </c>
       <c r="H38" s="0">
-        <v>98.89233495790873</v>
+        <v>98.434004474272925</v>
       </c>
       <c r="I38" s="0">
         <v>87.39746457867264</v>
@@ -1356,7 +1356,7 @@
         <v>77.407407407407405</v>
       </c>
       <c r="D39" s="0">
-        <v>99.648506151142357</v>
+        <v>99.629629629629633</v>
       </c>
       <c r="E39" s="0">
         <v>39.566395663956641</v>
@@ -1368,7 +1368,7 @@
         <v>86.204325130499626</v>
       </c>
       <c r="H39" s="0">
-        <v>98.493575542755877</v>
+        <v>98.583146905294555</v>
       </c>
       <c r="I39" s="0">
         <v>90.529455630126776</v>
@@ -1385,7 +1385,7 @@
         <v>77.407407407407405</v>
       </c>
       <c r="D40" s="0">
-        <v>99.824253075571178</v>
+        <v>100</v>
       </c>
       <c r="E40" s="0">
         <v>42.818428184281842</v>
@@ -1397,7 +1397,7 @@
         <v>87.099179716629379</v>
       </c>
       <c r="H40" s="0">
-        <v>98.936641559592374</v>
+        <v>98.65771812080537</v>
       </c>
       <c r="I40" s="0">
         <v>87.173750932140194</v>
@@ -1414,7 +1414,7 @@
         <v>85.925925925925924</v>
       </c>
       <c r="D41" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="E41" s="0">
         <v>58.536585365853654</v>
@@ -1426,7 +1426,7 @@
         <v>81.208053691275168</v>
       </c>
       <c r="H41" s="0">
-        <v>99.158174568010637</v>
+        <v>98.881431767337816</v>
       </c>
       <c r="I41" s="0">
         <v>83.296047725577921</v>
@@ -1443,7 +1443,7 @@
         <v>87.037037037037038</v>
       </c>
       <c r="D42" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="E42" s="0">
         <v>52.574525745257446</v>
@@ -1455,7 +1455,7 @@
         <v>81.357196122296799</v>
       </c>
       <c r="H42" s="0">
-        <v>99.424014178112543</v>
+        <v>99.254287844891877</v>
       </c>
       <c r="I42" s="0">
         <v>85.384041759880688</v>
@@ -1472,7 +1472,7 @@
         <v>86.296296296296291</v>
       </c>
       <c r="D43" s="0">
-        <v>98.769771528998234</v>
+        <v>97.777777777777771</v>
       </c>
       <c r="E43" s="0">
         <v>53.116531165311656</v>
@@ -1484,7 +1484,7 @@
         <v>79.716629381058908</v>
       </c>
       <c r="H43" s="0">
-        <v>99.379707576428885</v>
+        <v>99.105145413870247</v>
       </c>
       <c r="I43" s="0">
         <v>85.607755406413119</v>
@@ -1501,7 +1501,7 @@
         <v>85.555555555555557</v>
       </c>
       <c r="D44" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="E44" s="0">
         <v>54.200542005420047</v>
@@ -1513,7 +1513,7 @@
         <v>80.462341536167031</v>
       </c>
       <c r="H44" s="0">
-        <v>99.113867966326978</v>
+        <v>99.030574198359432</v>
       </c>
       <c r="I44" s="0">
         <v>81.058911260253538</v>
@@ -1530,7 +1530,7 @@
         <v>85.925925925925924</v>
       </c>
       <c r="D45" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="E45" s="0">
         <v>50.40650406504065</v>
@@ -1542,7 +1542,7 @@
         <v>84.787472035794181</v>
       </c>
       <c r="H45" s="0">
-        <v>98.980948161276032</v>
+        <v>98.806860551826986</v>
       </c>
       <c r="I45" s="0">
         <v>89.336316181953762</v>
@@ -1559,7 +1559,7 @@
         <v>85.555555555555557</v>
       </c>
       <c r="D46" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="E46" s="0">
         <v>50.677506775067748</v>
@@ -1571,7 +1571,7 @@
         <v>84.041759880686044</v>
       </c>
       <c r="H46" s="0">
-        <v>99.069561364643334</v>
+        <v>98.956002982848617</v>
       </c>
       <c r="I46" s="0">
         <v>83.892617449664428</v>
@@ -1588,7 +1588,7 @@
         <v>78.888888888888886</v>
       </c>
       <c r="D47" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="E47" s="0">
         <v>49.322493224932252</v>
@@ -1600,7 +1600,7 @@
         <v>81.133482475764353</v>
       </c>
       <c r="H47" s="0">
-        <v>98.360655737704917</v>
+        <v>98.434004474272925</v>
       </c>
       <c r="I47" s="0">
         <v>90.007457121551084</v>
@@ -1617,7 +1617,7 @@
         <v>79.629629629629633</v>
       </c>
       <c r="D48" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="E48" s="0">
         <v>60.433604336043359</v>
@@ -1629,7 +1629,7 @@
         <v>81.133482475764353</v>
       </c>
       <c r="H48" s="0">
-        <v>97.696056712450158</v>
+        <v>96.718866517524233</v>
       </c>
       <c r="I48" s="0">
         <v>82.699478001491428</v>
@@ -1646,7 +1646,7 @@
         <v>84.074074074074076</v>
       </c>
       <c r="D49" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="E49" s="0">
         <v>50.677506775067748</v>
@@ -1658,7 +1658,7 @@
         <v>81.357196122296799</v>
       </c>
       <c r="H49" s="0">
-        <v>99.424014178112543</v>
+        <v>99.179716629381048</v>
       </c>
       <c r="I49" s="0">
         <v>89.858314690529454</v>
